--- a/data/contenedores/contenedores.xlsx
+++ b/data/contenedores/contenedores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spuig\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spuig\Desktop\santi_gis\18 catarroja_avanza\data\contenedores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8338C057-71CC-4DB5-A167-3CCDFB476766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11881C6-5A94-4A0A-8C46-B5C1A2970046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>En ejecución</t>
+  </si>
+  <si>
+    <t>39,40991196</t>
+  </si>
+  <si>
+    <t>39,41032279</t>
   </si>
 </sst>
 </file>
@@ -655,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,11 +1321,11 @@
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="4">
-        <v>39.398814411640501</v>
+      <c r="C21" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D21" s="5">
-        <v>-0.39971324437123401</v>
+        <v>-0.40594652540798698</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
@@ -1411,11 +1417,11 @@
       <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4">
-        <v>39.4099120871034</v>
+      <c r="C24" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D24" s="5">
-        <v>-0.40593700942324301</v>
+        <v>-0.406118156537358</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -2657,5 +2663,8 @@
     <sortCondition ref="A2:A62"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C21 C24" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>